--- a/www/data/purchase_order_form.xlsx
+++ b/www/data/purchase_order_form.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\mall-eroumcare\www\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB1B38E4-DBC6-894D-944F-D9C466AB8080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29240" yWindow="4240" windowWidth="25200" windowHeight="24360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29235" yWindow="4245" windowWidth="25200" windowHeight="24360"/>
   </bookViews>
   <sheets>
     <sheet name="발주서 양식" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,26 +88,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전화번호 : 032)562-6608</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팩스번호 : 032)562-6609</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">         귀중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호 : 02)830-1301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팩스번호 : 02)830-1308</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -460,6 +459,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -473,36 +496,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,7 +536,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE2D80A-0415-46DB-9FA9-E79BC4A56EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0CE2D80A-0415-46DB-9FA9-E79BC4A56EB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -879,39 +878,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="64.1640625" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="64.125" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
     <col min="8" max="8" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1"/>
     <row r="2" spans="1:8" ht="29.25" customHeight="1">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1">
       <c r="B3" s="1"/>
@@ -923,60 +922,60 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1">
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="16"/>
+      <c r="B5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="24"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="G7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="18"/>
+      <c r="G7" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="G8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="18"/>
+      <c r="G8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B9" s="17">
+      <c r="B9" s="25">
         <f ca="1">TODAY()</f>
-        <v>44435</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="G9" s="18" t="s">
+        <v>44679</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="G9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="B10" s="3"/>
@@ -993,7 +992,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>5</v>
@@ -1011,125 +1010,125 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="35" customHeight="1">
+    <row r="12" spans="1:8" ht="35.1" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="9">
         <v>1</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="1:8" ht="35" customHeight="1">
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" ht="35.1" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="9">
         <v>2</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="1:8" ht="35" customHeight="1">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" ht="35.1" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="9">
         <v>3</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:8" ht="35" customHeight="1">
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" ht="35.1" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="9">
         <v>4</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:8" ht="35" customHeight="1">
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" ht="35.1" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="9">
         <v>5</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" ht="35" customHeight="1">
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" ht="35.1" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="9">
         <v>6</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8" ht="35" customHeight="1">
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:8" ht="35.1" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="9">
         <v>7</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="1:8" ht="35" customHeight="1">
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" ht="35.1" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="9">
         <v>8</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="1:8" ht="35" customHeight="1">
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" ht="35.1" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="9">
         <v>9</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="1:8" ht="35" customHeight="1" thickBot="1">
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" ht="35.1" customHeight="1" thickBot="1">
       <c r="A21" s="6"/>
       <c r="B21" s="9">
         <v>10</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="27"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="24" spans="1:8">
       <c r="H24" s="8"/>
